--- a/REGULAR/LANDICHO, CHARLENE.xlsx
+++ b/REGULAR/LANDICHO, CHARLENE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1885A01F-A6BF-4C74-8402-86E145749E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5EC358-5DF2-4D10-8571-49A1254C1E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1252,9 +1252,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/REGULAR/LANDICHO, CHARLENE.xlsx
+++ b/REGULAR/LANDICHO, CHARLENE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5EC358-5DF2-4D10-8571-49A1254C1E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FD9BFF-A5C4-4F85-BA68-F44E5E35FBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1252,9 +1252,9 @@
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,7 +1415,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.457999999999998</v>
+        <v>28.707999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1425,7 +1425,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37.457999999999998</v>
+        <v>38.707999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2803,19 +2803,27 @@
       <c r="A70" s="40">
         <v>44986</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="39"/>
+      <c r="B70" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D70" s="39">
+        <v>1</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="49">
+        <v>45016</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">

--- a/REGULAR/LANDICHO, CHARLENE.xlsx
+++ b/REGULAR/LANDICHO, CHARLENE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FD9BFF-A5C4-4F85-BA68-F44E5E35FBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -234,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -920,25 +919,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1245,34 +1244,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1292,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1313,7 +1312,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1332,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1341,7 +1340,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1354,7 +1353,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1371,7 +1370,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1415,7 +1414,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.707999999999998</v>
+        <v>28.957999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1425,12 +1424,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>38.707999999999998</v>
+        <v>39.957999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1452,7 +1451,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43710</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43739</v>
       </c>
@@ -1498,7 +1497,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43770</v>
       </c>
@@ -1518,7 +1517,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43800</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>46</v>
       </c>
@@ -1562,7 +1561,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43831</v>
       </c>
@@ -1582,7 +1581,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43862</v>
       </c>
@@ -1606,7 +1605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43891</v>
       </c>
@@ -1626,7 +1625,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43922</v>
       </c>
@@ -1646,7 +1645,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43952</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43983</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44013</v>
       </c>
@@ -1722,7 +1721,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>45</v>
@@ -1742,7 +1741,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44044</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44075</v>
       </c>
@@ -1792,7 +1791,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
@@ -1812,7 +1811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -1832,7 +1831,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f>EDATE(A27,1)</f>
         <v>44136</v>
@@ -1853,7 +1852,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>44166</v>
@@ -1880,7 +1879,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>45</v>
@@ -1902,7 +1901,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
@@ -1924,7 +1923,7 @@
         <v>44188</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>52</v>
@@ -1944,7 +1943,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>53</v>
       </c>
@@ -1962,7 +1961,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44197</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>51</v>
@@ -2006,7 +2005,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44228</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A36,1)</f>
         <v>44256</v>
@@ -2057,7 +2056,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" ref="A38:A41" si="0">EDATE(A37,1)</f>
         <v>44287</v>
@@ -2082,7 +2081,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -2109,7 +2108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A39,1)</f>
         <v>44348</v>
@@ -2130,7 +2129,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -2157,7 +2156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>57</v>
@@ -2179,7 +2178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44409</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44440</v>
       </c>
@@ -2223,7 +2222,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44470</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>51</v>
@@ -2271,7 +2270,7 @@
         <v>44525</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44501</v>
       </c>
@@ -2291,7 +2290,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44531</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>51</v>
@@ -2339,7 +2338,7 @@
         <v>44533</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>60</v>
       </c>
@@ -2357,7 +2356,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44562</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>54</v>
@@ -2401,7 +2400,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>54</v>
@@ -2421,7 +2420,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44593</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>44609</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>51</v>
@@ -2469,7 +2468,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44621</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>45</v>
@@ -2517,7 +2516,7 @@
         <v>44679</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44652</v>
       </c>
@@ -2537,7 +2536,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44682</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44713</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44743</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44774</v>
       </c>
@@ -2633,7 +2632,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44805</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44835</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>44859</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44866</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44896</v>
       </c>
@@ -2731,7 +2730,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>64</v>
       </c>
@@ -2749,7 +2748,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44927</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44958</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44986</v>
       </c>
@@ -2825,31 +2824,37 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>45017</v>
       </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45047</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C72" s="13"/>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>1</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13" t="str">
@@ -2859,9 +2864,11 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="49">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>45078</v>
       </c>
@@ -2879,7 +2886,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45108</v>
       </c>
@@ -2897,7 +2904,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>45139</v>
       </c>
@@ -2915,7 +2922,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45170</v>
       </c>
@@ -2933,7 +2940,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>45200</v>
       </c>
@@ -2951,7 +2958,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45231</v>
       </c>
@@ -2969,7 +2976,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45261</v>
       </c>
@@ -2987,7 +2994,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45292</v>
       </c>
@@ -3005,7 +3012,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45323</v>
       </c>
@@ -3023,7 +3030,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45352</v>
       </c>
@@ -3041,7 +3048,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45383</v>
       </c>
@@ -3059,7 +3066,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45413</v>
       </c>
@@ -3077,7 +3084,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45444</v>
       </c>
@@ -3095,7 +3102,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45474</v>
       </c>
@@ -3113,7 +3120,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45505</v>
       </c>
@@ -3131,7 +3138,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45536</v>
       </c>
@@ -3149,7 +3156,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45566</v>
       </c>
@@ -3167,7 +3174,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45597</v>
       </c>
@@ -3185,7 +3192,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45627</v>
       </c>
@@ -3203,7 +3210,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45658</v>
       </c>
@@ -3221,7 +3228,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45689</v>
       </c>
@@ -3239,7 +3246,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45717</v>
       </c>
@@ -3257,7 +3264,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45748</v>
       </c>
@@ -3275,7 +3282,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45778</v>
       </c>
@@ -3293,7 +3300,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45809</v>
       </c>
@@ -3311,7 +3318,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45839</v>
       </c>
@@ -3329,7 +3336,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45870</v>
       </c>
@@ -3347,7 +3354,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45901</v>
       </c>
@@ -3365,7 +3372,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45931</v>
       </c>
@@ -3383,7 +3390,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45962</v>
       </c>
@@ -3401,7 +3408,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45992</v>
       </c>
@@ -3419,7 +3426,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>46023</v>
       </c>
@@ -3437,7 +3444,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>46054</v>
       </c>
@@ -3455,7 +3462,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>46082</v>
       </c>
@@ -3473,7 +3480,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>46113</v>
       </c>
@@ -3491,7 +3498,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>46143</v>
       </c>
@@ -3509,7 +3516,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>46174</v>
       </c>
@@ -3527,7 +3534,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>46204</v>
       </c>
@@ -3545,7 +3552,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>46235</v>
       </c>
@@ -3563,7 +3570,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>46266</v>
       </c>
@@ -3581,7 +3588,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>46296</v>
       </c>
@@ -3599,7 +3606,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>46327</v>
       </c>
@@ -3617,7 +3624,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>46357</v>
       </c>
@@ -3635,7 +3642,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>46388</v>
       </c>
@@ -3653,7 +3660,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46419</v>
       </c>
@@ -3671,7 +3678,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46447</v>
       </c>
@@ -3689,7 +3696,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46478</v>
       </c>
@@ -3707,7 +3714,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46508</v>
       </c>
@@ -3725,7 +3732,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46539</v>
       </c>
@@ -3743,7 +3750,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46569</v>
       </c>
@@ -3761,7 +3768,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46600</v>
       </c>
@@ -3779,7 +3786,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46631</v>
       </c>
@@ -3797,7 +3804,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46661</v>
       </c>
@@ -3815,7 +3822,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>46692</v>
       </c>
@@ -3833,7 +3840,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46722</v>
       </c>
@@ -3851,7 +3858,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>46753</v>
       </c>
@@ -3869,7 +3876,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>46784</v>
       </c>
@@ -3887,7 +3894,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>46813</v>
       </c>
@@ -3905,7 +3912,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="15"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>46844</v>
       </c>
@@ -3938,10 +3945,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3964,28 +3971,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3998,7 +4005,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4027,7 +4034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -4049,17 +4056,17 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4080,7 +4087,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4107,7 +4114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4133,7 +4140,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4159,7 +4166,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4185,7 +4192,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4211,7 +4218,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4237,7 +4244,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4263,7 +4270,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4289,7 +4296,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4309,7 +4316,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4329,7 +4336,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4349,7 +4356,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4370,7 +4377,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4391,7 +4398,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4412,7 +4419,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4433,7 +4440,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4454,7 +4461,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4475,7 +4482,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4496,7 +4503,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4517,7 +4524,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4538,7 +4545,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4559,7 +4566,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4580,7 +4587,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4601,7 +4608,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4622,7 +4629,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4664,7 +4671,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4685,7 +4692,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4706,7 +4713,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4727,7 +4734,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4748,7 +4755,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4769,7 +4776,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4778,7 +4785,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4787,7 +4794,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4796,7 +4803,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4805,7 +4812,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4814,7 +4821,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4823,7 +4830,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4832,7 +4839,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4841,7 +4848,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4850,7 +4857,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4859,7 +4866,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4868,7 +4875,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4877,7 +4884,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4886,7 +4893,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4895,7 +4902,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4904,7 +4911,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4913,7 +4920,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4922,7 +4929,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4931,7 +4938,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4940,7 +4947,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4949,7 +4956,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4958,7 +4965,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4967,7 +4974,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4976,7 +4983,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4985,7 +4992,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4994,7 +5001,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5003,7 +5010,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5012,7 +5019,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5021,7 +5028,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5030,7 +5037,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LANDICHO, CHARLENE.xlsx
+++ b/REGULAR/LANDICHO, CHARLENE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E296CB3C-74C0-4D2F-ADFF-4BD24A56B685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -233,7 +234,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -919,25 +920,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1244,34 +1245,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <pane ySplit="3696" topLeftCell="A67" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1293,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1313,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1332,7 +1333,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1340,7 +1341,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1353,7 +1354,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1370,7 +1371,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1414,7 +1415,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.957999999999998</v>
+        <v>30.207999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1424,12 +1425,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39.957999999999998</v>
+        <v>41.207999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1451,7 +1452,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43710</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43739</v>
       </c>
@@ -1497,7 +1498,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43770</v>
       </c>
@@ -1517,7 +1518,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43800</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>46</v>
       </c>
@@ -1561,7 +1562,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43831</v>
       </c>
@@ -1581,7 +1582,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43862</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43891</v>
       </c>
@@ -1625,7 +1626,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43922</v>
       </c>
@@ -1645,7 +1646,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43952</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43983</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44013</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>45</v>
@@ -1741,7 +1742,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44044</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44075</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
@@ -1811,7 +1812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -1831,7 +1832,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f>EDATE(A27,1)</f>
         <v>44136</v>
@@ -1852,7 +1853,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>44166</v>
@@ -1879,7 +1880,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>45</v>
@@ -1901,7 +1902,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
@@ -1923,7 +1924,7 @@
         <v>44188</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>52</v>
@@ -1943,7 +1944,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
         <v>53</v>
       </c>
@@ -1961,7 +1962,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44197</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>51</v>
@@ -2005,7 +2006,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>44228</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f>EDATE(A36,1)</f>
         <v>44256</v>
@@ -2056,7 +2057,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" ref="A38:A41" si="0">EDATE(A37,1)</f>
         <v>44287</v>
@@ -2081,7 +2082,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -2108,7 +2109,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A39,1)</f>
         <v>44348</v>
@@ -2129,7 +2130,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -2156,7 +2157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>57</v>
@@ -2178,7 +2179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44409</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44440</v>
       </c>
@@ -2222,7 +2223,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44470</v>
       </c>
@@ -2248,7 +2249,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>51</v>
@@ -2270,7 +2271,7 @@
         <v>44525</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44501</v>
       </c>
@@ -2290,7 +2291,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44531</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>51</v>
@@ -2338,7 +2339,7 @@
         <v>44533</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>60</v>
       </c>
@@ -2356,7 +2357,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44562</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>54</v>
@@ -2400,7 +2401,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>54</v>
@@ -2420,7 +2421,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44593</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>44609</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>51</v>
@@ -2468,7 +2469,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44621</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>45</v>
@@ -2516,7 +2517,7 @@
         <v>44679</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44652</v>
       </c>
@@ -2536,7 +2537,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44682</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44713</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44743</v>
       </c>
@@ -2612,7 +2613,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44774</v>
       </c>
@@ -2632,7 +2633,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44805</v>
       </c>
@@ -2658,7 +2659,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44835</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>44859</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44866</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44896</v>
       </c>
@@ -2730,7 +2731,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
         <v>64</v>
       </c>
@@ -2748,7 +2749,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44927</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44958</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44986</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>45017</v>
       </c>
@@ -2844,22 +2845,24 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>45047</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C72" s="13"/>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="39">
         <v>1</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
@@ -2868,11 +2871,11 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B73" s="20"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="40"/>
+      <c r="B73" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
@@ -2884,11 +2887,13 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="49">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2904,9 +2909,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2922,9 +2927,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2940,9 +2945,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2958,9 +2963,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2976,9 +2981,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2994,9 +2999,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -3012,9 +3017,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3030,9 +3035,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3048,9 +3053,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3066,9 +3071,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3084,9 +3089,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3102,9 +3107,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3120,9 +3125,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3138,9 +3143,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3156,9 +3161,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3174,9 +3179,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3192,9 +3197,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3210,9 +3215,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3228,9 +3233,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3246,9 +3251,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3264,9 +3269,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3282,9 +3287,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3300,9 +3305,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3318,9 +3323,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3336,9 +3341,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3354,9 +3359,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3372,9 +3377,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3390,9 +3395,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3408,9 +3413,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3426,9 +3431,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3444,9 +3449,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3462,9 +3467,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3480,9 +3485,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3498,9 +3503,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3516,9 +3521,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3534,9 +3539,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3552,9 +3557,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3570,9 +3575,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3588,9 +3593,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3606,9 +3611,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3624,9 +3629,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3642,9 +3647,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3660,9 +3665,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3678,9 +3683,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3696,9 +3701,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3714,9 +3719,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3732,9 +3737,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3750,9 +3755,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3768,9 +3773,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3786,9 +3791,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3804,9 +3809,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3822,9 +3827,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3840,9 +3845,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3858,9 +3863,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3876,9 +3881,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3894,41 +3899,59 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
+        <v>46784</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40">
         <v>46813</v>
       </c>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40">
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40">
         <v>46844</v>
       </c>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3945,10 +3968,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3971,28 +3994,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4005,7 +4028,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4034,7 +4057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -4056,17 +4079,17 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4087,7 +4110,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4114,7 +4137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4140,7 +4163,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4166,7 +4189,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4192,7 +4215,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4218,7 +4241,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4244,7 +4267,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4270,7 +4293,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4296,7 +4319,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4316,7 +4339,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4336,7 +4359,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4356,7 +4379,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4377,7 +4400,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4398,7 +4421,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4419,7 +4442,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4440,7 +4463,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4461,7 +4484,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4482,7 +4505,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4503,7 +4526,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4524,7 +4547,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4545,7 +4568,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4566,7 +4589,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4587,7 +4610,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4608,7 +4631,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4629,7 +4652,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4650,7 +4673,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4671,7 +4694,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4692,7 +4715,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4713,7 +4736,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4734,7 +4757,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4755,7 +4778,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4776,7 +4799,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4785,7 +4808,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4794,7 +4817,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4803,7 +4826,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4812,7 +4835,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4821,7 +4844,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4830,7 +4853,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4839,7 +4862,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4848,7 +4871,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4857,7 +4880,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4866,7 +4889,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4875,7 +4898,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4884,7 +4907,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4893,7 +4916,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4902,7 +4925,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4911,7 +4934,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4920,7 +4943,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4929,7 +4952,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4938,7 +4961,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4947,7 +4970,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4956,7 +4979,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4965,7 +4988,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4974,7 +4997,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4983,7 +5006,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4992,7 +5015,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5001,7 +5024,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5010,7 +5033,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5019,7 +5042,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5028,7 +5051,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5037,7 +5060,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LANDICHO, CHARLENE.xlsx
+++ b/REGULAR/LANDICHO, CHARLENE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E296CB3C-74C0-4D2F-ADFF-4BD24A56B685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -234,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -920,25 +919,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1245,34 +1244,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A67" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+      <selection activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1292,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1313,7 +1312,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1332,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1341,7 +1340,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1354,7 +1353,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1371,7 +1370,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1430,7 +1429,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1452,7 +1451,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43710</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>43714</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43739</v>
       </c>
@@ -1498,7 +1497,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43770</v>
       </c>
@@ -1518,7 +1517,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43800</v>
       </c>
@@ -1544,7 +1543,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>46</v>
       </c>
@@ -1562,7 +1561,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43831</v>
       </c>
@@ -1582,7 +1581,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43862</v>
       </c>
@@ -1606,7 +1605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43891</v>
       </c>
@@ -1626,7 +1625,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43922</v>
       </c>
@@ -1646,7 +1645,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43952</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43983</v>
       </c>
@@ -1698,7 +1697,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44013</v>
       </c>
@@ -1722,7 +1721,7 @@
         <v>44026</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>45</v>
@@ -1742,7 +1741,7 @@
         <v>44036</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44044</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44075</v>
       </c>
@@ -1792,7 +1791,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
@@ -1812,7 +1811,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44105</v>
       </c>
@@ -1832,7 +1831,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f>EDATE(A27,1)</f>
         <v>44136</v>
@@ -1853,7 +1852,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>44166</v>
@@ -1880,7 +1879,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>45</v>
@@ -1902,7 +1901,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>51</v>
@@ -1924,7 +1923,7 @@
         <v>44188</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>52</v>
@@ -1944,7 +1943,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>53</v>
       </c>
@@ -1962,7 +1961,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44197</v>
       </c>
@@ -1984,7 +1983,7 @@
         <v>44214</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>51</v>
@@ -2006,7 +2005,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44228</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f>EDATE(A36,1)</f>
         <v>44256</v>
@@ -2057,7 +2056,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" ref="A38:A41" si="0">EDATE(A37,1)</f>
         <v>44287</v>
@@ -2082,7 +2081,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="0"/>
         <v>44317</v>
@@ -2109,7 +2108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A39,1)</f>
         <v>44348</v>
@@ -2130,7 +2129,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="0"/>
         <v>44378</v>
@@ -2157,7 +2156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>57</v>
@@ -2179,7 +2178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44409</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44440</v>
       </c>
@@ -2223,7 +2222,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44470</v>
       </c>
@@ -2249,7 +2248,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>51</v>
@@ -2271,7 +2270,7 @@
         <v>44525</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44501</v>
       </c>
@@ -2291,7 +2290,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44531</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>51</v>
@@ -2339,7 +2338,7 @@
         <v>44533</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>60</v>
       </c>
@@ -2357,7 +2356,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44562</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>54</v>
@@ -2401,7 +2400,7 @@
         <v>44206</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>54</v>
@@ -2421,7 +2420,7 @@
         <v>44220</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44593</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>44609</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>51</v>
@@ -2469,7 +2468,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44621</v>
       </c>
@@ -2495,7 +2494,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>45</v>
@@ -2517,7 +2516,7 @@
         <v>44679</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44652</v>
       </c>
@@ -2537,7 +2536,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44682</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44713</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44743</v>
       </c>
@@ -2613,7 +2612,7 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44774</v>
       </c>
@@ -2633,7 +2632,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44805</v>
       </c>
@@ -2659,7 +2658,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44835</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>44859</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44866</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44896</v>
       </c>
@@ -2731,7 +2730,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
         <v>64</v>
       </c>
@@ -2749,7 +2748,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44927</v>
       </c>
@@ -2773,7 +2772,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44958</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44986</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>45017</v>
       </c>
@@ -2845,7 +2844,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45047</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>54</v>
@@ -2891,11 +2890,13 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45078</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
@@ -2907,9 +2908,11 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="49">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>45108</v>
       </c>
@@ -2927,7 +2930,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45139</v>
       </c>
@@ -2945,7 +2948,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>45170</v>
       </c>
@@ -2963,7 +2966,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45200</v>
       </c>
@@ -2981,7 +2984,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45231</v>
       </c>
@@ -2999,7 +3002,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45261</v>
       </c>
@@ -3017,7 +3020,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45292</v>
       </c>
@@ -3035,7 +3038,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45323</v>
       </c>
@@ -3053,7 +3056,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45352</v>
       </c>
@@ -3071,7 +3074,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45383</v>
       </c>
@@ -3089,7 +3092,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45413</v>
       </c>
@@ -3107,7 +3110,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45444</v>
       </c>
@@ -3125,7 +3128,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45474</v>
       </c>
@@ -3143,7 +3146,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45505</v>
       </c>
@@ -3161,7 +3164,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45536</v>
       </c>
@@ -3179,7 +3182,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45566</v>
       </c>
@@ -3197,7 +3200,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45597</v>
       </c>
@@ -3215,7 +3218,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45627</v>
       </c>
@@ -3233,7 +3236,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45658</v>
       </c>
@@ -3251,7 +3254,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45689</v>
       </c>
@@ -3269,7 +3272,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45717</v>
       </c>
@@ -3287,7 +3290,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45748</v>
       </c>
@@ -3305,7 +3308,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45778</v>
       </c>
@@ -3323,7 +3326,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45809</v>
       </c>
@@ -3341,7 +3344,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45839</v>
       </c>
@@ -3359,7 +3362,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45870</v>
       </c>
@@ -3377,7 +3380,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45901</v>
       </c>
@@ -3395,7 +3398,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45931</v>
       </c>
@@ -3413,7 +3416,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45962</v>
       </c>
@@ -3431,7 +3434,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45992</v>
       </c>
@@ -3449,7 +3452,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>46023</v>
       </c>
@@ -3467,7 +3470,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>46054</v>
       </c>
@@ -3485,7 +3488,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>46082</v>
       </c>
@@ -3503,7 +3506,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>46113</v>
       </c>
@@ -3521,7 +3524,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>46143</v>
       </c>
@@ -3539,7 +3542,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>46174</v>
       </c>
@@ -3557,7 +3560,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>46204</v>
       </c>
@@ -3575,7 +3578,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>46235</v>
       </c>
@@ -3593,7 +3596,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>46266</v>
       </c>
@@ -3611,7 +3614,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>46296</v>
       </c>
@@ -3629,7 +3632,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>46327</v>
       </c>
@@ -3647,7 +3650,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>46357</v>
       </c>
@@ -3665,7 +3668,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46388</v>
       </c>
@@ -3683,7 +3686,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46419</v>
       </c>
@@ -3701,7 +3704,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46447</v>
       </c>
@@ -3719,7 +3722,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46478</v>
       </c>
@@ -3737,7 +3740,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46508</v>
       </c>
@@ -3755,7 +3758,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46539</v>
       </c>
@@ -3773,7 +3776,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46569</v>
       </c>
@@ -3791,7 +3794,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46600</v>
       </c>
@@ -3809,7 +3812,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46631</v>
       </c>
@@ -3827,7 +3830,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>46661</v>
       </c>
@@ -3845,7 +3848,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46692</v>
       </c>
@@ -3863,7 +3866,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>46722</v>
       </c>
@@ -3881,7 +3884,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>46753</v>
       </c>
@@ -3899,7 +3902,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>46784</v>
       </c>
@@ -3917,7 +3920,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>46813</v>
       </c>
@@ -3935,7 +3938,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="15"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>46844</v>
       </c>
@@ -3968,10 +3971,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3994,28 +3997,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4028,7 +4031,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4057,7 +4060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -4079,17 +4082,17 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4110,7 +4113,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4163,7 +4166,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4215,7 +4218,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4241,7 +4244,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4319,7 +4322,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4359,7 +4362,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4379,7 +4382,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4442,7 +4445,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4505,7 +4508,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4547,7 +4550,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4568,7 +4571,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4610,7 +4613,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4631,7 +4634,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4673,7 +4676,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4715,7 +4718,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4736,7 +4739,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4799,7 +4802,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4808,7 +4811,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4817,7 +4820,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4826,7 +4829,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4835,7 +4838,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4844,7 +4847,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4853,7 +4856,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4862,7 +4865,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4871,7 +4874,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4880,7 +4883,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4889,7 +4892,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4898,7 +4901,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4907,7 +4910,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4916,7 +4919,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4925,7 +4928,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4934,7 +4937,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4943,7 +4946,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4952,7 +4955,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4961,7 +4964,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4970,7 +4973,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4979,7 +4982,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4988,7 +4991,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4997,7 +5000,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5006,7 +5009,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5015,7 +5018,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5024,7 +5027,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5033,7 +5036,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5042,7 +5045,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5051,7 +5054,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5060,7 +5063,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
